--- a/varying_wrf.xlsx
+++ b/varying_wrf.xlsx
@@ -17,9 +17,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -131,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -153,14 +158,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -175,14 +184,18 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="3" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="3" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="3" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="3" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="3" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="3" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -193,10 +206,10 @@
     <xf numFmtId="10" fontId="4" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="4" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="4" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="4" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="4" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -207,10 +220,10 @@
     <xf numFmtId="10" fontId="5" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="5" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="5" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="5" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -225,14 +238,18 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="6" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="6" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="6" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="6" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="6" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="6" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="6" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="6" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="6" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -247,20 +264,64 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="7" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="7" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="7" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="7" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="7" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="7" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="7" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="170" fontId="7" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="7" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="7" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="170" fontId="7" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="7" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="3" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="3" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="4" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="5" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="6" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="6" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="6" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="7" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="7" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="7" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="170" fontId="7" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="7" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="170" fontId="7" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -670,7 +731,7 @@
     <col width="29" customWidth="1" min="31" max="31"/>
     <col width="28" customWidth="1" min="32" max="32"/>
     <col width="21" customWidth="1" min="33" max="33"/>
-    <col width="23" customWidth="1" min="34" max="34"/>
+    <col width="22" customWidth="1" min="34" max="34"/>
     <col width="21" customWidth="1" min="35" max="35"/>
     <col width="27" customWidth="1" min="36" max="36"/>
     <col width="26" customWidth="1" min="37" max="37"/>
@@ -958,7 +1019,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
@@ -969,10 +1030,10 @@
         <v>16</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29940.19110753142</v>
+        <v>10340.19110753142</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>23520</v>
+        <v>3920</v>
       </c>
       <c r="J2" s="5" t="n">
         <v>14516.25850717963</v>
@@ -981,1156 +1042,1156 @@
         <v>8096.067399648214</v>
       </c>
       <c r="L2" s="6" t="n">
-        <v>25554.90119947726</v>
+        <v>9873.597867479417</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>-0.1464548307193463</v>
+        <v>-0.04514598859324246</v>
       </c>
       <c r="N2" s="8" t="n">
-        <v>18901.26</v>
+        <v>3151.68</v>
       </c>
       <c r="O2" s="8" t="n">
-        <v>12938.27823082855</v>
+        <v>12953.97565953346</v>
       </c>
       <c r="P2" s="8" t="n">
-        <v>6284.637031351298</v>
+        <v>6232.05779205405</v>
       </c>
       <c r="Q2" s="9" t="n">
-        <v>24601.35199208097</v>
+        <v>9812.761425556175</v>
       </c>
       <c r="R2" s="10" t="n">
-        <v>-0.1783219787981602</v>
+        <v>-0.05098924458783127</v>
       </c>
       <c r="S2" s="11" t="n">
-        <v>17716.44</v>
+        <v>2928.73</v>
       </c>
       <c r="T2" s="11" t="n">
-        <v>12972.29973624143</v>
+        <v>12961.01899699626</v>
       </c>
       <c r="U2" s="11" t="n">
-        <v>6087.387744160457</v>
+        <v>6076.987571440081</v>
       </c>
       <c r="V2" s="12" t="n">
-        <v>24400.36711420329</v>
+        <v>9737.34924765476</v>
       </c>
       <c r="W2" s="13" t="n">
-        <v>-0.1850201080976768</v>
+        <v>-0.05827603552104323</v>
       </c>
       <c r="X2" s="14" t="n">
-        <v>17619.42</v>
+        <v>2957.15</v>
       </c>
       <c r="Y2" s="14" t="n">
-        <v>12847.62024493172</v>
+        <v>12963.86713576895</v>
       </c>
       <c r="Z2" s="14" t="n">
-        <v>6066.673130728434</v>
+        <v>6183.667888114189</v>
       </c>
       <c r="AA2" s="6" t="n">
-        <v>24539.00373013884</v>
+        <v>10000.5181110261</v>
       </c>
       <c r="AB2" s="7" t="n">
-        <v>-0.1803988090767377</v>
+        <v>-0.03277225798556176</v>
       </c>
       <c r="AC2" s="8" t="n">
-        <v>17654.7</v>
+        <v>3167.85</v>
       </c>
       <c r="AD2" s="8" t="n">
-        <v>12962.8769064047</v>
+        <v>12969.21912182735</v>
       </c>
       <c r="AE2" s="8" t="n">
-        <v>6078.573176265856</v>
+        <v>6136.551010801249</v>
       </c>
       <c r="AF2" s="15" t="n">
-        <v>0.0428420163516928</v>
+        <v>-0.01213640247857317</v>
       </c>
       <c r="AG2" s="16" t="n">
-        <v>1.712199378013611</v>
+        <v>1.74975745677948</v>
       </c>
       <c r="AH2" s="17" t="n">
-        <v>0.02026246070861816</v>
+        <v>0.02093086242675781</v>
       </c>
       <c r="AI2" s="18" t="n">
-        <v>1.732461838722229</v>
+        <v>1.770688319206238</v>
       </c>
       <c r="AJ2" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AK2" s="19" t="n">
-        <v>7.156372070312501e-05</v>
+        <v>6.946325302124024e-05</v>
       </c>
       <c r="AL2" s="20" t="n">
-        <v>24853.62120007837</v>
+        <v>26961.1116709751</v>
       </c>
       <c r="AM2" s="19" t="n">
-        <v>7.156372070312501e-05</v>
+        <v>6.946325302124024e-05</v>
       </c>
       <c r="AN2" s="21" t="n">
-        <v>0.001301383972167969</v>
+        <v>0.001304521560668945</v>
       </c>
       <c r="AO2" s="22" t="n">
-        <v>3.162145614624023e-05</v>
+        <v>4.151821136474609e-05</v>
       </c>
       <c r="AP2" s="23" t="n">
-        <v>1305.459000855861</v>
-      </c>
-      <c r="AQ2" s="22" t="n">
-        <v>0.001333005428314209</v>
+        <v>1325.825178388284</v>
+      </c>
+      <c r="AQ2" s="24" t="n">
+        <v>0.001346039772033691</v>
       </c>
       <c r="AR2" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AS2" s="17" t="n">
-        <v>1.150608062744141e-05</v>
-      </c>
-      <c r="AT2" s="24" t="n">
-        <v>152199.4991483701</v>
-      </c>
-      <c r="AU2" s="17" t="n">
-        <v>1.150608062744141e-05</v>
-      </c>
-      <c r="AV2" s="18" t="n">
-        <v>0.001434297561645508</v>
+      <c r="AS2" s="25" t="n">
+        <v>1.295566558837891e-05</v>
+      </c>
+      <c r="AT2" s="26" t="n">
+        <v>145828.035525789</v>
+      </c>
+      <c r="AU2" s="25" t="n">
+        <v>1.295566558837891e-05</v>
+      </c>
+      <c r="AV2" s="27" t="n">
+        <v>0.001388993263244629</v>
       </c>
       <c r="AW2" s="19" t="n">
-        <v>4.621744155883789e-05</v>
+        <v>9.809732437133789e-05</v>
       </c>
       <c r="AX2" s="20" t="n">
-        <v>1181.136417072001</v>
-      </c>
-      <c r="AY2" s="19" t="n">
-        <v>0.001480515003204346</v>
+        <v>1198.721033778343</v>
+      </c>
+      <c r="AY2" s="28" t="n">
+        <v>0.001487090587615967</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="inlineStr">
+      <c r="A3" s="29" t="inlineStr">
         <is>
           <t>MEAN</t>
         </is>
       </c>
-      <c r="B3" s="25" t="n">
+      <c r="B3" s="29" t="n">
         <v>1000</v>
       </c>
-      <c r="C3" s="25" t="n">
+      <c r="C3" s="29" t="n">
         <v>20</v>
       </c>
-      <c r="D3" s="25" t="n">
+      <c r="D3" s="29" t="n">
         <v>25</v>
       </c>
-      <c r="E3" s="25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F3" s="25" t="inlineStr">
+      <c r="E3" s="29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="29" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G3" s="25" t="n">
+      <c r="G3" s="29" t="n">
         <v>16</v>
       </c>
-      <c r="H3" s="26" t="n">
-        <v>29940.19110753142</v>
-      </c>
-      <c r="I3" s="27" t="n">
-        <v>23520</v>
-      </c>
-      <c r="J3" s="27" t="n">
+      <c r="H3" s="30" t="n">
+        <v>10340.19110753142</v>
+      </c>
+      <c r="I3" s="31" t="n">
+        <v>3920</v>
+      </c>
+      <c r="J3" s="31" t="n">
         <v>14516.25850717963</v>
       </c>
-      <c r="K3" s="27" t="n">
+      <c r="K3" s="31" t="n">
         <v>8096.067399648214</v>
       </c>
-      <c r="L3" s="28" t="n">
-        <v>25554.90119947726</v>
-      </c>
-      <c r="M3" s="29" t="n">
-        <v>-0.1464548307193463</v>
-      </c>
-      <c r="N3" s="30" t="n">
-        <v>18901.26</v>
-      </c>
-      <c r="O3" s="30" t="n">
-        <v>12938.27823082855</v>
-      </c>
-      <c r="P3" s="30" t="n">
-        <v>6284.637031351298</v>
-      </c>
-      <c r="Q3" s="31" t="n">
-        <v>24601.35199208097</v>
-      </c>
-      <c r="R3" s="32" t="n">
-        <v>-0.1783219787981602</v>
-      </c>
-      <c r="S3" s="33" t="n">
-        <v>17716.44</v>
-      </c>
-      <c r="T3" s="33" t="n">
-        <v>12972.29973624143</v>
-      </c>
-      <c r="U3" s="33" t="n">
-        <v>6087.387744160457</v>
-      </c>
-      <c r="V3" s="34" t="n">
-        <v>24400.36711420329</v>
-      </c>
-      <c r="W3" s="35" t="n">
-        <v>-0.1850201080976768</v>
-      </c>
-      <c r="X3" s="36" t="n">
-        <v>17619.42</v>
-      </c>
-      <c r="Y3" s="36" t="n">
-        <v>12847.62024493172</v>
-      </c>
-      <c r="Z3" s="36" t="n">
-        <v>6066.673130728434</v>
-      </c>
-      <c r="AA3" s="28" t="n">
-        <v>24539.00373013884</v>
-      </c>
-      <c r="AB3" s="29" t="n">
-        <v>-0.1803988090767377</v>
-      </c>
-      <c r="AC3" s="30" t="n">
-        <v>17654.7</v>
-      </c>
-      <c r="AD3" s="30" t="n">
-        <v>12962.8769064047</v>
-      </c>
-      <c r="AE3" s="30" t="n">
-        <v>6078.573176265856</v>
-      </c>
-      <c r="AF3" s="37" t="n">
-        <v>0.0428420163516928</v>
-      </c>
-      <c r="AG3" s="38" t="n">
-        <v>1.712199378013611</v>
-      </c>
-      <c r="AH3" s="39" t="n">
-        <v>0.02026246070861816</v>
-      </c>
-      <c r="AI3" s="40" t="n">
-        <v>1.732461838722229</v>
-      </c>
-      <c r="AJ3" s="40" t="n">
+      <c r="L3" s="32" t="n">
+        <v>9873.597867479417</v>
+      </c>
+      <c r="M3" s="33" t="n">
+        <v>-0.04514598859324246</v>
+      </c>
+      <c r="N3" s="34" t="n">
+        <v>3151.68</v>
+      </c>
+      <c r="O3" s="34" t="n">
+        <v>12953.97565953346</v>
+      </c>
+      <c r="P3" s="34" t="n">
+        <v>6232.05779205405</v>
+      </c>
+      <c r="Q3" s="35" t="n">
+        <v>9812.761425556175</v>
+      </c>
+      <c r="R3" s="36" t="n">
+        <v>-0.05098924458783127</v>
+      </c>
+      <c r="S3" s="37" t="n">
+        <v>2928.73</v>
+      </c>
+      <c r="T3" s="37" t="n">
+        <v>12961.01899699626</v>
+      </c>
+      <c r="U3" s="37" t="n">
+        <v>6076.987571440081</v>
+      </c>
+      <c r="V3" s="38" t="n">
+        <v>9737.34924765476</v>
+      </c>
+      <c r="W3" s="39" t="n">
+        <v>-0.05827603552104323</v>
+      </c>
+      <c r="X3" s="40" t="n">
+        <v>2957.15</v>
+      </c>
+      <c r="Y3" s="40" t="n">
+        <v>12963.86713576895</v>
+      </c>
+      <c r="Z3" s="40" t="n">
+        <v>6183.667888114189</v>
+      </c>
+      <c r="AA3" s="32" t="n">
+        <v>10000.5181110261</v>
+      </c>
+      <c r="AB3" s="33" t="n">
+        <v>-0.03277225798556176</v>
+      </c>
+      <c r="AC3" s="34" t="n">
+        <v>3167.85</v>
+      </c>
+      <c r="AD3" s="34" t="n">
+        <v>12969.21912182735</v>
+      </c>
+      <c r="AE3" s="34" t="n">
+        <v>6136.551010801249</v>
+      </c>
+      <c r="AF3" s="41" t="n">
+        <v>-0.01213640247857317</v>
+      </c>
+      <c r="AG3" s="42" t="n">
+        <v>1.74975745677948</v>
+      </c>
+      <c r="AH3" s="43" t="n">
+        <v>0.02093086242675781</v>
+      </c>
+      <c r="AI3" s="44" t="n">
+        <v>1.770688319206238</v>
+      </c>
+      <c r="AJ3" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="AK3" s="41" t="n">
-        <v>7.156372070312501e-05</v>
-      </c>
-      <c r="AL3" s="42" t="n">
-        <v>24853.62120007837</v>
-      </c>
-      <c r="AM3" s="41" t="n">
-        <v>7.156372070312501e-05</v>
-      </c>
-      <c r="AN3" s="43" t="n">
-        <v>0.001301383972167969</v>
-      </c>
-      <c r="AO3" s="44" t="n">
-        <v>3.162145614624023e-05</v>
-      </c>
-      <c r="AP3" s="45" t="n">
-        <v>1305.459000855861</v>
-      </c>
-      <c r="AQ3" s="44" t="n">
-        <v>0.001333005428314209</v>
-      </c>
-      <c r="AR3" s="38" t="n">
+      <c r="AK3" s="45" t="n">
+        <v>6.946325302124024e-05</v>
+      </c>
+      <c r="AL3" s="46" t="n">
+        <v>26961.1116709751</v>
+      </c>
+      <c r="AM3" s="45" t="n">
+        <v>6.946325302124024e-05</v>
+      </c>
+      <c r="AN3" s="47" t="n">
+        <v>0.001304521560668945</v>
+      </c>
+      <c r="AO3" s="48" t="n">
+        <v>4.151821136474609e-05</v>
+      </c>
+      <c r="AP3" s="49" t="n">
+        <v>1325.825178388284</v>
+      </c>
+      <c r="AQ3" s="50" t="n">
+        <v>0.001346039772033691</v>
+      </c>
+      <c r="AR3" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AS3" s="39" t="n">
-        <v>1.150608062744141e-05</v>
-      </c>
-      <c r="AT3" s="46" t="n">
-        <v>152199.4991483701</v>
-      </c>
-      <c r="AU3" s="39" t="n">
-        <v>1.150608062744141e-05</v>
-      </c>
-      <c r="AV3" s="40" t="n">
-        <v>0.001434297561645508</v>
-      </c>
-      <c r="AW3" s="41" t="n">
-        <v>4.621744155883789e-05</v>
-      </c>
-      <c r="AX3" s="42" t="n">
-        <v>1181.136417072001</v>
-      </c>
-      <c r="AY3" s="41" t="n">
-        <v>0.001480515003204346</v>
+      <c r="AS3" s="51" t="n">
+        <v>1.295566558837891e-05</v>
+      </c>
+      <c r="AT3" s="52" t="n">
+        <v>145828.035525789</v>
+      </c>
+      <c r="AU3" s="51" t="n">
+        <v>1.295566558837891e-05</v>
+      </c>
+      <c r="AV3" s="53" t="n">
+        <v>0.001388993263244629</v>
+      </c>
+      <c r="AW3" s="45" t="n">
+        <v>9.809732437133789e-05</v>
+      </c>
+      <c r="AX3" s="46" t="n">
+        <v>1198.721033778343</v>
+      </c>
+      <c r="AY3" s="54" t="n">
+        <v>0.001487090587615967</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="47" t="inlineStr">
+      <c r="A4" s="55" t="inlineStr">
         <is>
           <t>MAX</t>
         </is>
       </c>
-      <c r="B4" s="47" t="n">
+      <c r="B4" s="55" t="n">
         <v>1000</v>
       </c>
-      <c r="C4" s="47" t="n">
+      <c r="C4" s="55" t="n">
         <v>20</v>
       </c>
-      <c r="D4" s="47" t="n">
+      <c r="D4" s="55" t="n">
         <v>25</v>
       </c>
-      <c r="E4" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="47" t="inlineStr">
+      <c r="E4" s="55" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="55" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G4" s="47" t="n">
+      <c r="G4" s="55" t="n">
         <v>16</v>
       </c>
-      <c r="H4" s="48" t="inlineStr"/>
-      <c r="I4" s="48" t="inlineStr"/>
-      <c r="J4" s="48" t="inlineStr"/>
-      <c r="K4" s="48" t="inlineStr"/>
-      <c r="L4" s="49" t="inlineStr"/>
-      <c r="M4" s="50" t="n">
-        <v>-0.07577010499334752</v>
-      </c>
-      <c r="N4" s="49" t="inlineStr"/>
-      <c r="O4" s="49" t="inlineStr"/>
-      <c r="P4" s="49" t="inlineStr"/>
-      <c r="Q4" s="51" t="inlineStr"/>
-      <c r="R4" s="52" t="n">
-        <v>-0.09375562478794403</v>
-      </c>
-      <c r="S4" s="51" t="inlineStr"/>
-      <c r="T4" s="51" t="inlineStr"/>
-      <c r="U4" s="51" t="inlineStr"/>
-      <c r="V4" s="53" t="inlineStr"/>
-      <c r="W4" s="54" t="n">
-        <v>-0.09603026979970182</v>
-      </c>
-      <c r="X4" s="53" t="inlineStr"/>
-      <c r="Y4" s="53" t="inlineStr"/>
-      <c r="Z4" s="53" t="inlineStr"/>
-      <c r="AA4" s="49" t="inlineStr"/>
-      <c r="AB4" s="50" t="n">
-        <v>-0.09442349784884879</v>
-      </c>
-      <c r="AC4" s="49" t="inlineStr"/>
-      <c r="AD4" s="49" t="inlineStr"/>
-      <c r="AE4" s="49" t="inlineStr"/>
-      <c r="AF4" s="55" t="n">
-        <v>0.1890676710169173</v>
-      </c>
-      <c r="AG4" s="56" t="inlineStr"/>
-      <c r="AH4" s="53" t="inlineStr"/>
-      <c r="AI4" s="48" t="inlineStr"/>
-      <c r="AJ4" s="48" t="inlineStr"/>
-      <c r="AK4" s="49" t="inlineStr"/>
-      <c r="AL4" s="57" t="n">
-        <v>30286.94693877551</v>
-      </c>
-      <c r="AM4" s="49" t="inlineStr"/>
-      <c r="AN4" s="58" t="inlineStr"/>
-      <c r="AO4" s="51" t="inlineStr"/>
-      <c r="AP4" s="59" t="n">
-        <v>1418.24803297115</v>
-      </c>
-      <c r="AQ4" s="51" t="inlineStr"/>
-      <c r="AR4" s="56" t="inlineStr"/>
-      <c r="AS4" s="53" t="inlineStr"/>
-      <c r="AT4" s="60" t="n">
-        <v>203722.7837837838</v>
-      </c>
-      <c r="AU4" s="53" t="inlineStr"/>
-      <c r="AV4" s="48" t="inlineStr"/>
-      <c r="AW4" s="49" t="inlineStr"/>
-      <c r="AX4" s="57" t="n">
-        <v>1305.767614125754</v>
-      </c>
-      <c r="AY4" s="49" t="inlineStr"/>
+      <c r="H4" s="56" t="inlineStr"/>
+      <c r="I4" s="56" t="inlineStr"/>
+      <c r="J4" s="56" t="inlineStr"/>
+      <c r="K4" s="56" t="inlineStr"/>
+      <c r="L4" s="57" t="inlineStr"/>
+      <c r="M4" s="58" t="n">
+        <v>0.006644844423510109</v>
+      </c>
+      <c r="N4" s="57" t="inlineStr"/>
+      <c r="O4" s="57" t="inlineStr"/>
+      <c r="P4" s="57" t="inlineStr"/>
+      <c r="Q4" s="59" t="inlineStr"/>
+      <c r="R4" s="60" t="n">
+        <v>-0.009190721555116575</v>
+      </c>
+      <c r="S4" s="59" t="inlineStr"/>
+      <c r="T4" s="59" t="inlineStr"/>
+      <c r="U4" s="59" t="inlineStr"/>
+      <c r="V4" s="61" t="inlineStr"/>
+      <c r="W4" s="62" t="n">
+        <v>-0.01381103801069268</v>
+      </c>
+      <c r="X4" s="61" t="inlineStr"/>
+      <c r="Y4" s="61" t="inlineStr"/>
+      <c r="Z4" s="61" t="inlineStr"/>
+      <c r="AA4" s="57" t="inlineStr"/>
+      <c r="AB4" s="58" t="n">
+        <v>0.01108333189045867</v>
+      </c>
+      <c r="AC4" s="57" t="inlineStr"/>
+      <c r="AD4" s="57" t="inlineStr"/>
+      <c r="AE4" s="57" t="inlineStr"/>
+      <c r="AF4" s="63" t="n">
+        <v>0.1043224830546609</v>
+      </c>
+      <c r="AG4" s="64" t="inlineStr"/>
+      <c r="AH4" s="61" t="inlineStr"/>
+      <c r="AI4" s="56" t="inlineStr"/>
+      <c r="AJ4" s="56" t="inlineStr"/>
+      <c r="AK4" s="57" t="inlineStr"/>
+      <c r="AL4" s="65" t="n">
+        <v>35057.25791855204</v>
+      </c>
+      <c r="AM4" s="57" t="inlineStr"/>
+      <c r="AN4" s="66" t="inlineStr"/>
+      <c r="AO4" s="59" t="inlineStr"/>
+      <c r="AP4" s="67" t="n">
+        <v>1504.590112884391</v>
+      </c>
+      <c r="AQ4" s="59" t="inlineStr"/>
+      <c r="AR4" s="64" t="inlineStr"/>
+      <c r="AS4" s="61" t="inlineStr"/>
+      <c r="AT4" s="68" t="n">
+        <v>199719.1315789474</v>
+      </c>
+      <c r="AU4" s="61" t="inlineStr"/>
+      <c r="AV4" s="56" t="inlineStr"/>
+      <c r="AW4" s="57" t="inlineStr"/>
+      <c r="AX4" s="65" t="n">
+        <v>1358.046275197195</v>
+      </c>
+      <c r="AY4" s="57" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="47" t="inlineStr">
+      <c r="A5" s="55" t="inlineStr">
         <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="B5" s="47" t="n">
+      <c r="B5" s="55" t="n">
         <v>1000</v>
       </c>
-      <c r="C5" s="47" t="n">
+      <c r="C5" s="55" t="n">
         <v>20</v>
       </c>
-      <c r="D5" s="47" t="n">
+      <c r="D5" s="55" t="n">
         <v>25</v>
       </c>
-      <c r="E5" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F5" s="47" t="inlineStr">
+      <c r="E5" s="55" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="55" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G5" s="47" t="n">
+      <c r="G5" s="55" t="n">
         <v>16</v>
       </c>
-      <c r="H5" s="48" t="inlineStr"/>
-      <c r="I5" s="48" t="inlineStr"/>
-      <c r="J5" s="48" t="inlineStr"/>
-      <c r="K5" s="48" t="inlineStr"/>
-      <c r="L5" s="49" t="inlineStr"/>
-      <c r="M5" s="50" t="n">
-        <v>-0.252233186117246</v>
-      </c>
-      <c r="N5" s="49" t="inlineStr"/>
-      <c r="O5" s="49" t="inlineStr"/>
-      <c r="P5" s="49" t="inlineStr"/>
-      <c r="Q5" s="51" t="inlineStr"/>
-      <c r="R5" s="52" t="n">
-        <v>-0.2517269755898159</v>
-      </c>
-      <c r="S5" s="51" t="inlineStr"/>
-      <c r="T5" s="51" t="inlineStr"/>
-      <c r="U5" s="51" t="inlineStr"/>
-      <c r="V5" s="53" t="inlineStr"/>
-      <c r="W5" s="54" t="n">
-        <v>-0.3022805303781045</v>
-      </c>
-      <c r="X5" s="53" t="inlineStr"/>
-      <c r="Y5" s="53" t="inlineStr"/>
-      <c r="Z5" s="53" t="inlineStr"/>
-      <c r="AA5" s="49" t="inlineStr"/>
-      <c r="AB5" s="50" t="n">
-        <v>-0.2621285635360688</v>
-      </c>
-      <c r="AC5" s="49" t="inlineStr"/>
-      <c r="AD5" s="49" t="inlineStr"/>
-      <c r="AE5" s="49" t="inlineStr"/>
-      <c r="AF5" s="55" t="n">
-        <v>-0.09930216530082399</v>
-      </c>
-      <c r="AG5" s="56" t="inlineStr"/>
-      <c r="AH5" s="53" t="inlineStr"/>
-      <c r="AI5" s="48" t="inlineStr"/>
-      <c r="AJ5" s="48" t="inlineStr"/>
-      <c r="AK5" s="49" t="inlineStr"/>
-      <c r="AL5" s="57" t="n">
-        <v>13798.24124513619</v>
-      </c>
-      <c r="AM5" s="49" t="inlineStr"/>
-      <c r="AN5" s="58" t="inlineStr"/>
-      <c r="AO5" s="51" t="inlineStr"/>
-      <c r="AP5" s="59" t="n">
-        <v>875.7723251150171</v>
-      </c>
-      <c r="AQ5" s="51" t="inlineStr"/>
-      <c r="AR5" s="56" t="inlineStr"/>
-      <c r="AS5" s="53" t="inlineStr"/>
-      <c r="AT5" s="60" t="n">
-        <v>95399.37333333334</v>
-      </c>
-      <c r="AU5" s="53" t="inlineStr"/>
-      <c r="AV5" s="48" t="inlineStr"/>
-      <c r="AW5" s="49" t="inlineStr"/>
-      <c r="AX5" s="57" t="n">
-        <v>753.0650397877984</v>
-      </c>
-      <c r="AY5" s="49" t="inlineStr"/>
+      <c r="H5" s="56" t="inlineStr"/>
+      <c r="I5" s="56" t="inlineStr"/>
+      <c r="J5" s="56" t="inlineStr"/>
+      <c r="K5" s="56" t="inlineStr"/>
+      <c r="L5" s="57" t="inlineStr"/>
+      <c r="M5" s="58" t="n">
+        <v>-0.1306698984274523</v>
+      </c>
+      <c r="N5" s="57" t="inlineStr"/>
+      <c r="O5" s="57" t="inlineStr"/>
+      <c r="P5" s="57" t="inlineStr"/>
+      <c r="Q5" s="59" t="inlineStr"/>
+      <c r="R5" s="60" t="n">
+        <v>-0.1040511740228664</v>
+      </c>
+      <c r="S5" s="59" t="inlineStr"/>
+      <c r="T5" s="59" t="inlineStr"/>
+      <c r="U5" s="59" t="inlineStr"/>
+      <c r="V5" s="61" t="inlineStr"/>
+      <c r="W5" s="62" t="n">
+        <v>-0.104779320324973</v>
+      </c>
+      <c r="X5" s="61" t="inlineStr"/>
+      <c r="Y5" s="61" t="inlineStr"/>
+      <c r="Z5" s="61" t="inlineStr"/>
+      <c r="AA5" s="57" t="inlineStr"/>
+      <c r="AB5" s="58" t="n">
+        <v>-0.1116487109842607</v>
+      </c>
+      <c r="AC5" s="57" t="inlineStr"/>
+      <c r="AD5" s="57" t="inlineStr"/>
+      <c r="AE5" s="57" t="inlineStr"/>
+      <c r="AF5" s="63" t="n">
+        <v>-0.1205258229527003</v>
+      </c>
+      <c r="AG5" s="64" t="inlineStr"/>
+      <c r="AH5" s="61" t="inlineStr"/>
+      <c r="AI5" s="56" t="inlineStr"/>
+      <c r="AJ5" s="56" t="inlineStr"/>
+      <c r="AK5" s="57" t="inlineStr"/>
+      <c r="AL5" s="65" t="n">
+        <v>10286.08080808081</v>
+      </c>
+      <c r="AM5" s="57" t="inlineStr"/>
+      <c r="AN5" s="66" t="inlineStr"/>
+      <c r="AO5" s="59" t="inlineStr"/>
+      <c r="AP5" s="67" t="n">
+        <v>865.6212052042913</v>
+      </c>
+      <c r="AQ5" s="59" t="inlineStr"/>
+      <c r="AR5" s="64" t="inlineStr"/>
+      <c r="AS5" s="61" t="inlineStr"/>
+      <c r="AT5" s="68" t="n">
+        <v>48035.21476510067</v>
+      </c>
+      <c r="AU5" s="61" t="inlineStr"/>
+      <c r="AV5" s="56" t="inlineStr"/>
+      <c r="AW5" s="57" t="inlineStr"/>
+      <c r="AX5" s="65" t="n">
+        <v>703.0847836655323</v>
+      </c>
+      <c r="AY5" s="57" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="61" t="inlineStr">
+      <c r="A6" s="69" t="inlineStr">
         <is>
           <t>STD</t>
         </is>
       </c>
-      <c r="B6" s="61" t="n">
+      <c r="B6" s="69" t="n">
         <v>1000</v>
       </c>
-      <c r="C6" s="61" t="n">
+      <c r="C6" s="69" t="n">
         <v>20</v>
       </c>
-      <c r="D6" s="61" t="n">
+      <c r="D6" s="69" t="n">
         <v>25</v>
       </c>
-      <c r="E6" s="61" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="61" t="inlineStr">
+      <c r="E6" s="69" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="69" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G6" s="61" t="n">
+      <c r="G6" s="69" t="n">
         <v>16</v>
       </c>
-      <c r="H6" s="62" t="inlineStr"/>
-      <c r="I6" s="62" t="inlineStr"/>
-      <c r="J6" s="62" t="inlineStr"/>
-      <c r="K6" s="62" t="inlineStr"/>
-      <c r="L6" s="63" t="inlineStr"/>
-      <c r="M6" s="64" t="n">
-        <v>0.0362368945148883</v>
-      </c>
-      <c r="N6" s="63" t="inlineStr"/>
-      <c r="O6" s="63" t="inlineStr"/>
-      <c r="P6" s="63" t="inlineStr"/>
-      <c r="Q6" s="65" t="inlineStr"/>
-      <c r="R6" s="66" t="n">
-        <v>0.03474735655155106</v>
-      </c>
-      <c r="S6" s="65" t="inlineStr"/>
-      <c r="T6" s="65" t="inlineStr"/>
-      <c r="U6" s="65" t="inlineStr"/>
-      <c r="V6" s="67" t="inlineStr"/>
-      <c r="W6" s="68" t="n">
-        <v>0.03668437504169305</v>
-      </c>
-      <c r="X6" s="67" t="inlineStr"/>
-      <c r="Y6" s="67" t="inlineStr"/>
-      <c r="Z6" s="67" t="inlineStr"/>
-      <c r="AA6" s="63" t="inlineStr"/>
-      <c r="AB6" s="64" t="n">
-        <v>0.03326901300240752</v>
-      </c>
-      <c r="AC6" s="63" t="inlineStr"/>
-      <c r="AD6" s="63" t="inlineStr"/>
-      <c r="AE6" s="63" t="inlineStr"/>
-      <c r="AF6" s="69" t="n">
-        <v>0.0566995234910893</v>
-      </c>
-      <c r="AG6" s="70" t="inlineStr"/>
-      <c r="AH6" s="67" t="inlineStr"/>
-      <c r="AI6" s="62" t="inlineStr"/>
-      <c r="AJ6" s="62" t="inlineStr"/>
-      <c r="AK6" s="63" t="inlineStr"/>
-      <c r="AL6" s="71" t="n">
-        <v>3611.524183475416</v>
-      </c>
-      <c r="AM6" s="63" t="inlineStr"/>
-      <c r="AN6" s="72" t="inlineStr"/>
-      <c r="AO6" s="65" t="inlineStr"/>
-      <c r="AP6" s="73" t="n">
-        <v>84.91330755149755</v>
-      </c>
-      <c r="AQ6" s="65" t="inlineStr"/>
-      <c r="AR6" s="70" t="inlineStr"/>
-      <c r="AS6" s="67" t="inlineStr"/>
-      <c r="AT6" s="74" t="n">
-        <v>16817.36816584516</v>
-      </c>
-      <c r="AU6" s="67" t="inlineStr"/>
-      <c r="AV6" s="62" t="inlineStr"/>
-      <c r="AW6" s="63" t="inlineStr"/>
-      <c r="AX6" s="71" t="n">
-        <v>105.5929054630807</v>
-      </c>
-      <c r="AY6" s="63" t="inlineStr"/>
+      <c r="H6" s="70" t="inlineStr"/>
+      <c r="I6" s="70" t="inlineStr"/>
+      <c r="J6" s="70" t="inlineStr"/>
+      <c r="K6" s="70" t="inlineStr"/>
+      <c r="L6" s="71" t="inlineStr"/>
+      <c r="M6" s="72" t="n">
+        <v>0.02730923647700098</v>
+      </c>
+      <c r="N6" s="71" t="inlineStr"/>
+      <c r="O6" s="71" t="inlineStr"/>
+      <c r="P6" s="71" t="inlineStr"/>
+      <c r="Q6" s="73" t="inlineStr"/>
+      <c r="R6" s="74" t="n">
+        <v>0.01783231402388023</v>
+      </c>
+      <c r="S6" s="73" t="inlineStr"/>
+      <c r="T6" s="73" t="inlineStr"/>
+      <c r="U6" s="73" t="inlineStr"/>
+      <c r="V6" s="75" t="inlineStr"/>
+      <c r="W6" s="76" t="n">
+        <v>0.0202240760737603</v>
+      </c>
+      <c r="X6" s="75" t="inlineStr"/>
+      <c r="Y6" s="75" t="inlineStr"/>
+      <c r="Z6" s="75" t="inlineStr"/>
+      <c r="AA6" s="71" t="inlineStr"/>
+      <c r="AB6" s="72" t="n">
+        <v>0.024191819075779</v>
+      </c>
+      <c r="AC6" s="71" t="inlineStr"/>
+      <c r="AD6" s="71" t="inlineStr"/>
+      <c r="AE6" s="71" t="inlineStr"/>
+      <c r="AF6" s="77" t="n">
+        <v>0.03872914263199632</v>
+      </c>
+      <c r="AG6" s="78" t="inlineStr"/>
+      <c r="AH6" s="75" t="inlineStr"/>
+      <c r="AI6" s="70" t="inlineStr"/>
+      <c r="AJ6" s="70" t="inlineStr"/>
+      <c r="AK6" s="71" t="inlineStr"/>
+      <c r="AL6" s="79" t="n">
+        <v>5203.76464121656</v>
+      </c>
+      <c r="AM6" s="71" t="inlineStr"/>
+      <c r="AN6" s="80" t="inlineStr"/>
+      <c r="AO6" s="73" t="inlineStr"/>
+      <c r="AP6" s="81" t="n">
+        <v>111.2166393414342</v>
+      </c>
+      <c r="AQ6" s="73" t="inlineStr"/>
+      <c r="AR6" s="78" t="inlineStr"/>
+      <c r="AS6" s="75" t="inlineStr"/>
+      <c r="AT6" s="82" t="n">
+        <v>29329.92011485925</v>
+      </c>
+      <c r="AU6" s="75" t="inlineStr"/>
+      <c r="AV6" s="70" t="inlineStr"/>
+      <c r="AW6" s="71" t="inlineStr"/>
+      <c r="AX6" s="79" t="n">
+        <v>95.93144626598331</v>
+      </c>
+      <c r="AY6" s="71" t="inlineStr"/>
     </row>
     <row r="7"/>
     <row r="8"/>
     <row r="9">
-      <c r="A9" s="75" t="inlineStr">
+      <c r="A9" s="83" t="inlineStr">
         <is>
           <t>W-AVG</t>
         </is>
       </c>
-      <c r="B9" s="75" t="inlineStr"/>
-      <c r="C9" s="75" t="inlineStr"/>
-      <c r="D9" s="75" t="n">
+      <c r="B9" s="83" t="inlineStr"/>
+      <c r="C9" s="83" t="inlineStr"/>
+      <c r="D9" s="83" t="n">
         <v>25</v>
       </c>
-      <c r="E9" s="75" t="inlineStr"/>
-      <c r="F9" s="75" t="inlineStr">
+      <c r="E9" s="83" t="inlineStr"/>
+      <c r="F9" s="83" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G9" s="75" t="inlineStr"/>
-      <c r="H9" s="76" t="n">
-        <v>29940.19110753142</v>
-      </c>
-      <c r="I9" s="77" t="n">
-        <v>23520</v>
-      </c>
-      <c r="J9" s="77" t="n">
+      <c r="G9" s="83" t="inlineStr"/>
+      <c r="H9" s="84" t="n">
+        <v>10340.19110753142</v>
+      </c>
+      <c r="I9" s="85" t="n">
+        <v>3920</v>
+      </c>
+      <c r="J9" s="85" t="n">
         <v>14516.25850717963</v>
       </c>
-      <c r="K9" s="77" t="n">
+      <c r="K9" s="85" t="n">
         <v>8096.067399648214</v>
       </c>
-      <c r="L9" s="78" t="n">
-        <v>25554.90119947726</v>
-      </c>
-      <c r="M9" s="79" t="n">
-        <v>-0.1464548307193463</v>
-      </c>
-      <c r="N9" s="80" t="n">
-        <v>18901.26</v>
-      </c>
-      <c r="O9" s="80" t="n">
-        <v>12938.27823082855</v>
-      </c>
-      <c r="P9" s="80" t="n">
-        <v>6284.637031351298</v>
-      </c>
-      <c r="Q9" s="81" t="n">
-        <v>24601.35199208097</v>
-      </c>
-      <c r="R9" s="82" t="n">
-        <v>-0.1783219787981602</v>
-      </c>
-      <c r="S9" s="83" t="n">
-        <v>17716.44</v>
-      </c>
-      <c r="T9" s="83" t="n">
-        <v>12972.29973624143</v>
-      </c>
-      <c r="U9" s="83" t="n">
-        <v>6087.387744160457</v>
-      </c>
-      <c r="V9" s="84" t="n">
-        <v>24400.36711420329</v>
-      </c>
-      <c r="W9" s="85" t="n">
-        <v>-0.1850201080976768</v>
-      </c>
-      <c r="X9" s="86" t="n">
-        <v>17619.42</v>
-      </c>
-      <c r="Y9" s="86" t="n">
-        <v>12847.62024493172</v>
-      </c>
-      <c r="Z9" s="86" t="n">
-        <v>6066.673130728434</v>
-      </c>
-      <c r="AA9" s="78" t="n">
-        <v>24539.00373013884</v>
-      </c>
-      <c r="AB9" s="79" t="n">
-        <v>-0.1803988090767377</v>
-      </c>
-      <c r="AC9" s="80" t="n">
-        <v>17654.7</v>
-      </c>
-      <c r="AD9" s="80" t="n">
-        <v>12962.8769064047</v>
-      </c>
-      <c r="AE9" s="80" t="n">
-        <v>6078.573176265856</v>
-      </c>
-      <c r="AF9" s="87" t="n">
-        <v>0.0428420163516928</v>
-      </c>
-      <c r="AG9" s="88" t="n">
-        <v>1.712199378013611</v>
-      </c>
-      <c r="AH9" s="89" t="n">
-        <v>0.02026246070861816</v>
-      </c>
-      <c r="AI9" s="90" t="n">
-        <v>1.732461838722229</v>
-      </c>
-      <c r="AJ9" s="90" t="n">
+      <c r="L9" s="86" t="n">
+        <v>9873.597867479417</v>
+      </c>
+      <c r="M9" s="87" t="n">
+        <v>-0.04514598859324246</v>
+      </c>
+      <c r="N9" s="88" t="n">
+        <v>3151.68</v>
+      </c>
+      <c r="O9" s="88" t="n">
+        <v>12953.97565953346</v>
+      </c>
+      <c r="P9" s="88" t="n">
+        <v>6232.05779205405</v>
+      </c>
+      <c r="Q9" s="89" t="n">
+        <v>9812.761425556175</v>
+      </c>
+      <c r="R9" s="90" t="n">
+        <v>-0.05098924458783127</v>
+      </c>
+      <c r="S9" s="91" t="n">
+        <v>2928.73</v>
+      </c>
+      <c r="T9" s="91" t="n">
+        <v>12961.01899699626</v>
+      </c>
+      <c r="U9" s="91" t="n">
+        <v>6076.987571440081</v>
+      </c>
+      <c r="V9" s="92" t="n">
+        <v>9737.34924765476</v>
+      </c>
+      <c r="W9" s="93" t="n">
+        <v>-0.05827603552104323</v>
+      </c>
+      <c r="X9" s="94" t="n">
+        <v>2957.15</v>
+      </c>
+      <c r="Y9" s="94" t="n">
+        <v>12963.86713576895</v>
+      </c>
+      <c r="Z9" s="94" t="n">
+        <v>6183.667888114189</v>
+      </c>
+      <c r="AA9" s="86" t="n">
+        <v>10000.5181110261</v>
+      </c>
+      <c r="AB9" s="87" t="n">
+        <v>-0.03277225798556176</v>
+      </c>
+      <c r="AC9" s="88" t="n">
+        <v>3167.85</v>
+      </c>
+      <c r="AD9" s="88" t="n">
+        <v>12969.21912182735</v>
+      </c>
+      <c r="AE9" s="88" t="n">
+        <v>6136.551010801249</v>
+      </c>
+      <c r="AF9" s="95" t="n">
+        <v>-0.01213640247857317</v>
+      </c>
+      <c r="AG9" s="96" t="n">
+        <v>1.74975745677948</v>
+      </c>
+      <c r="AH9" s="97" t="n">
+        <v>0.02093086242675781</v>
+      </c>
+      <c r="AI9" s="98" t="n">
+        <v>1.770688319206238</v>
+      </c>
+      <c r="AJ9" s="98" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" s="91" t="n">
-        <v>7.156372070312501e-05</v>
-      </c>
-      <c r="AL9" s="92" t="n">
-        <v>24853.62120007837</v>
-      </c>
-      <c r="AM9" s="91" t="n">
-        <v>7.156372070312501e-05</v>
-      </c>
-      <c r="AN9" s="93" t="n">
-        <v>0.001301383972167969</v>
-      </c>
-      <c r="AO9" s="94" t="n">
-        <v>3.162145614624023e-05</v>
-      </c>
-      <c r="AP9" s="95" t="n">
-        <v>1305.459000855861</v>
-      </c>
-      <c r="AQ9" s="94" t="n">
-        <v>0.001333005428314209</v>
-      </c>
-      <c r="AR9" s="88" t="n">
+      <c r="AK9" s="99" t="n">
+        <v>6.946325302124024e-05</v>
+      </c>
+      <c r="AL9" s="100" t="n">
+        <v>26961.1116709751</v>
+      </c>
+      <c r="AM9" s="99" t="n">
+        <v>6.946325302124024e-05</v>
+      </c>
+      <c r="AN9" s="101" t="n">
+        <v>0.001304521560668945</v>
+      </c>
+      <c r="AO9" s="102" t="n">
+        <v>4.151821136474609e-05</v>
+      </c>
+      <c r="AP9" s="103" t="n">
+        <v>1325.825178388284</v>
+      </c>
+      <c r="AQ9" s="104" t="n">
+        <v>0.001346039772033691</v>
+      </c>
+      <c r="AR9" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="89" t="n">
-        <v>1.150608062744141e-05</v>
-      </c>
-      <c r="AT9" s="96" t="n">
-        <v>152199.4991483701</v>
-      </c>
-      <c r="AU9" s="89" t="n">
-        <v>1.150608062744141e-05</v>
-      </c>
-      <c r="AV9" s="90" t="n">
-        <v>0.001434297561645508</v>
-      </c>
-      <c r="AW9" s="91" t="n">
-        <v>4.621744155883789e-05</v>
-      </c>
-      <c r="AX9" s="92" t="n">
-        <v>1181.136417072001</v>
-      </c>
-      <c r="AY9" s="91" t="n">
-        <v>0.001480515003204346</v>
+      <c r="AS9" s="105" t="n">
+        <v>1.295566558837891e-05</v>
+      </c>
+      <c r="AT9" s="106" t="n">
+        <v>145828.035525789</v>
+      </c>
+      <c r="AU9" s="105" t="n">
+        <v>1.295566558837891e-05</v>
+      </c>
+      <c r="AV9" s="107" t="n">
+        <v>0.001388993263244629</v>
+      </c>
+      <c r="AW9" s="99" t="n">
+        <v>9.809732437133789e-05</v>
+      </c>
+      <c r="AX9" s="100" t="n">
+        <v>1198.721033778343</v>
+      </c>
+      <c r="AY9" s="108" t="n">
+        <v>0.001487090587615967</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="97" t="inlineStr">
+      <c r="A10" s="109" t="inlineStr">
         <is>
           <t>W-MAX</t>
         </is>
       </c>
-      <c r="B10" s="97" t="inlineStr"/>
-      <c r="C10" s="97" t="inlineStr"/>
-      <c r="D10" s="97" t="n">
+      <c r="B10" s="109" t="inlineStr"/>
+      <c r="C10" s="109" t="inlineStr"/>
+      <c r="D10" s="109" t="n">
         <v>25</v>
       </c>
-      <c r="E10" s="97" t="inlineStr"/>
-      <c r="F10" s="97" t="inlineStr">
+      <c r="E10" s="109" t="inlineStr"/>
+      <c r="F10" s="109" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G10" s="97" t="inlineStr"/>
-      <c r="H10" s="98" t="n">
-        <v>30613.32858113668</v>
-      </c>
-      <c r="I10" s="99" t="n">
-        <v>23520</v>
-      </c>
-      <c r="J10" s="99" t="n">
+      <c r="G10" s="109" t="inlineStr"/>
+      <c r="H10" s="110" t="n">
+        <v>11013.32858113668</v>
+      </c>
+      <c r="I10" s="111" t="n">
+        <v>3920</v>
+      </c>
+      <c r="J10" s="111" t="n">
         <v>16050.81385604942</v>
       </c>
-      <c r="K10" s="99" t="n">
+      <c r="K10" s="111" t="n">
         <v>8957.485274912729</v>
       </c>
-      <c r="L10" s="100" t="n">
-        <v>27639.52571892913</v>
-      </c>
-      <c r="M10" s="101" t="n">
-        <v>-0.07577010499334752</v>
-      </c>
-      <c r="N10" s="102" t="n">
-        <v>20874</v>
-      </c>
-      <c r="O10" s="102" t="n">
-        <v>14896.6875627758</v>
-      </c>
-      <c r="P10" s="102" t="n">
-        <v>7572.293731317624</v>
-      </c>
-      <c r="Q10" s="103" t="n">
-        <v>27101.66036787653</v>
-      </c>
-      <c r="R10" s="104" t="n">
-        <v>-0.09375562478794403</v>
-      </c>
-      <c r="S10" s="105" t="n">
-        <v>20286</v>
-      </c>
-      <c r="T10" s="105" t="n">
-        <v>14421.20016795987</v>
-      </c>
-      <c r="U10" s="105" t="n">
-        <v>6825.194391976676</v>
-      </c>
-      <c r="V10" s="106" t="n">
-        <v>27005.75120699171</v>
-      </c>
-      <c r="W10" s="107" t="n">
-        <v>-0.09603026979970182</v>
-      </c>
-      <c r="X10" s="108" t="n">
-        <v>20286</v>
-      </c>
-      <c r="Y10" s="108" t="n">
-        <v>14507.30472112577</v>
-      </c>
-      <c r="Z10" s="108" t="n">
-        <v>7324.864876495184</v>
-      </c>
-      <c r="AA10" s="100" t="n">
-        <v>27574.55504641501</v>
-      </c>
-      <c r="AB10" s="101" t="n">
-        <v>-0.09442349784884879</v>
-      </c>
-      <c r="AC10" s="102" t="n">
-        <v>20286</v>
-      </c>
-      <c r="AD10" s="102" t="n">
-        <v>14346.83406421619</v>
-      </c>
-      <c r="AE10" s="102" t="n">
-        <v>6752.133329110552</v>
-      </c>
-      <c r="AF10" s="109" t="n">
-        <v>0.1890676710169173</v>
-      </c>
-      <c r="AG10" s="110" t="n">
-        <v>1.785694360733032</v>
-      </c>
-      <c r="AH10" s="111" t="n">
-        <v>0.02293539047241211</v>
-      </c>
-      <c r="AI10" s="112" t="n">
-        <v>1.807692766189575</v>
-      </c>
-      <c r="AJ10" s="112" t="n">
+      <c r="L10" s="112" t="n">
+        <v>10801.37658883777</v>
+      </c>
+      <c r="M10" s="113" t="n">
+        <v>0.006644844423510109</v>
+      </c>
+      <c r="N10" s="114" t="n">
+        <v>3626</v>
+      </c>
+      <c r="O10" s="114" t="n">
+        <v>14737.16467002748</v>
+      </c>
+      <c r="P10" s="114" t="n">
+        <v>7338.648177261344</v>
+      </c>
+      <c r="Q10" s="115" t="n">
+        <v>10658.58944220682</v>
+      </c>
+      <c r="R10" s="116" t="n">
+        <v>-0.009190721555116575</v>
+      </c>
+      <c r="S10" s="117" t="n">
+        <v>3332</v>
+      </c>
+      <c r="T10" s="117" t="n">
+        <v>14302.7648862574</v>
+      </c>
+      <c r="U10" s="117" t="n">
+        <v>6713.738399241403</v>
+      </c>
+      <c r="V10" s="118" t="n">
+        <v>10736.9178245062</v>
+      </c>
+      <c r="W10" s="119" t="n">
+        <v>-0.01381103801069268</v>
+      </c>
+      <c r="X10" s="120" t="n">
+        <v>3283</v>
+      </c>
+      <c r="Y10" s="120" t="n">
+        <v>15185.65569065111</v>
+      </c>
+      <c r="Z10" s="120" t="n">
+        <v>7800.588400026219</v>
+      </c>
+      <c r="AA10" s="112" t="n">
+        <v>11111.53757273126</v>
+      </c>
+      <c r="AB10" s="113" t="n">
+        <v>0.01108333189045867</v>
+      </c>
+      <c r="AC10" s="114" t="n">
+        <v>3577</v>
+      </c>
+      <c r="AD10" s="114" t="n">
+        <v>14513.12810289053</v>
+      </c>
+      <c r="AE10" s="114" t="n">
+        <v>7367.379081891193</v>
+      </c>
+      <c r="AF10" s="121" t="n">
+        <v>0.1043224830546609</v>
+      </c>
+      <c r="AG10" s="122" t="n">
+        <v>1.823045492172241</v>
+      </c>
+      <c r="AH10" s="123" t="n">
+        <v>0.02604365348815918</v>
+      </c>
+      <c r="AI10" s="124" t="n">
+        <v>1.847184658050537</v>
+      </c>
+      <c r="AJ10" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="AK10" s="113" t="n">
-        <v>0.0001225471496582031</v>
-      </c>
-      <c r="AL10" s="114" t="n">
-        <v>30286.94693877551</v>
-      </c>
-      <c r="AM10" s="113" t="n">
-        <v>0.0001225471496582031</v>
-      </c>
-      <c r="AN10" s="115" t="n">
-        <v>0.00198054313659668</v>
-      </c>
-      <c r="AO10" s="116" t="n">
-        <v>5.006790161132812e-05</v>
-      </c>
-      <c r="AP10" s="117" t="n">
-        <v>1418.24803297115</v>
-      </c>
-      <c r="AQ10" s="116" t="n">
-        <v>0.002021074295043945</v>
-      </c>
-      <c r="AR10" s="110" t="n">
+      <c r="AK10" s="125" t="n">
+        <v>0.0001652240753173828</v>
+      </c>
+      <c r="AL10" s="126" t="n">
+        <v>35057.25791855204</v>
+      </c>
+      <c r="AM10" s="125" t="n">
+        <v>0.0001652240753173828</v>
+      </c>
+      <c r="AN10" s="127" t="n">
+        <v>0.002034664154052734</v>
+      </c>
+      <c r="AO10" s="128" t="n">
+        <v>9.655952453613281e-05</v>
+      </c>
+      <c r="AP10" s="129" t="n">
+        <v>1504.590112884391</v>
+      </c>
+      <c r="AQ10" s="130" t="n">
+        <v>0.002089023590087891</v>
+      </c>
+      <c r="AR10" s="122" t="n">
         <v>0</v>
       </c>
-      <c r="AS10" s="111" t="n">
-        <v>1.788139343261719e-05</v>
-      </c>
-      <c r="AT10" s="118" t="n">
-        <v>203722.7837837838</v>
-      </c>
-      <c r="AU10" s="111" t="n">
-        <v>1.788139343261719e-05</v>
-      </c>
-      <c r="AV10" s="112" t="n">
-        <v>0.002297878265380859</v>
-      </c>
-      <c r="AW10" s="113" t="n">
-        <v>8.702278137207031e-05</v>
-      </c>
-      <c r="AX10" s="114" t="n">
-        <v>1305.767614125754</v>
-      </c>
-      <c r="AY10" s="113" t="n">
-        <v>0.002356052398681641</v>
+      <c r="AS10" s="131" t="n">
+        <v>3.552436828613281e-05</v>
+      </c>
+      <c r="AT10" s="132" t="n">
+        <v>199719.1315789474</v>
+      </c>
+      <c r="AU10" s="131" t="n">
+        <v>3.552436828613281e-05</v>
+      </c>
+      <c r="AV10" s="133" t="n">
+        <v>0.002272605895996094</v>
+      </c>
+      <c r="AW10" s="125" t="n">
+        <v>0.000186920166015625</v>
+      </c>
+      <c r="AX10" s="126" t="n">
+        <v>1358.046275197195</v>
+      </c>
+      <c r="AY10" s="134" t="n">
+        <v>0.00245213508605957</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="97" t="inlineStr">
+      <c r="A11" s="109" t="inlineStr">
         <is>
           <t>W-MIN</t>
         </is>
       </c>
-      <c r="B11" s="97" t="inlineStr"/>
-      <c r="C11" s="97" t="inlineStr"/>
-      <c r="D11" s="97" t="n">
+      <c r="B11" s="109" t="inlineStr"/>
+      <c r="C11" s="109" t="inlineStr"/>
+      <c r="D11" s="109" t="n">
         <v>25</v>
       </c>
-      <c r="E11" s="97" t="inlineStr"/>
-      <c r="F11" s="97" t="inlineStr">
+      <c r="E11" s="109" t="inlineStr"/>
+      <c r="F11" s="109" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G11" s="97" t="inlineStr"/>
-      <c r="H11" s="98" t="n">
-        <v>29592.5656828924</v>
-      </c>
-      <c r="I11" s="99" t="n">
-        <v>23520</v>
-      </c>
-      <c r="J11" s="99" t="n">
+      <c r="G11" s="109" t="inlineStr"/>
+      <c r="H11" s="110" t="n">
+        <v>9992.565682892404</v>
+      </c>
+      <c r="I11" s="111" t="n">
+        <v>3920</v>
+      </c>
+      <c r="J11" s="111" t="n">
         <v>14015.64402524685</v>
       </c>
-      <c r="K11" s="99" t="n">
+      <c r="K11" s="111" t="n">
         <v>7907.933315287385</v>
       </c>
-      <c r="L11" s="100" t="n">
-        <v>22342.94671890233</v>
-      </c>
-      <c r="M11" s="101" t="n">
-        <v>-0.252233186117246</v>
-      </c>
-      <c r="N11" s="102" t="n">
-        <v>16170</v>
-      </c>
-      <c r="O11" s="102" t="n">
-        <v>12283.24441676148</v>
-      </c>
-      <c r="P11" s="102" t="n">
-        <v>5654.459041459149</v>
-      </c>
-      <c r="Q11" s="103" t="n">
-        <v>22359.83687811994</v>
-      </c>
-      <c r="R11" s="104" t="n">
-        <v>-0.2517269755898159</v>
-      </c>
-      <c r="S11" s="105" t="n">
-        <v>15582</v>
-      </c>
-      <c r="T11" s="105" t="n">
-        <v>12235.69046151946</v>
-      </c>
-      <c r="U11" s="105" t="n">
-        <v>5613.130890557306</v>
-      </c>
-      <c r="V11" s="106" t="n">
-        <v>20867.04550659339</v>
-      </c>
-      <c r="W11" s="107" t="n">
-        <v>-0.3022805303781045</v>
-      </c>
-      <c r="X11" s="108" t="n">
-        <v>14112</v>
-      </c>
-      <c r="Y11" s="108" t="n">
-        <v>11963.04265197207</v>
-      </c>
-      <c r="Z11" s="108" t="n">
-        <v>5383.330488479452</v>
-      </c>
-      <c r="AA11" s="100" t="n">
-        <v>22588.70073510565</v>
-      </c>
-      <c r="AB11" s="101" t="n">
-        <v>-0.2621285635360688</v>
-      </c>
-      <c r="AC11" s="102" t="n">
-        <v>14994</v>
-      </c>
-      <c r="AD11" s="102" t="n">
-        <v>12081.77246222793</v>
-      </c>
-      <c r="AE11" s="102" t="n">
-        <v>5465.907509982268</v>
-      </c>
-      <c r="AF11" s="109" t="n">
-        <v>-0.09930216530082399</v>
-      </c>
-      <c r="AG11" s="110" t="n">
-        <v>1.648425817489624</v>
-      </c>
-      <c r="AH11" s="111" t="n">
-        <v>0.01868796348571777</v>
-      </c>
-      <c r="AI11" s="112" t="n">
-        <v>1.66755199432373</v>
-      </c>
-      <c r="AJ11" s="112" t="n">
+      <c r="L11" s="112" t="n">
+        <v>8705.267241493826</v>
+      </c>
+      <c r="M11" s="113" t="n">
+        <v>-0.1306698984274523</v>
+      </c>
+      <c r="N11" s="114" t="n">
+        <v>2646</v>
+      </c>
+      <c r="O11" s="114" t="n">
+        <v>11772.08264341662</v>
+      </c>
+      <c r="P11" s="114" t="n">
+        <v>5303.133880581812</v>
+      </c>
+      <c r="Q11" s="115" t="n">
+        <v>9234.993125848563</v>
+      </c>
+      <c r="R11" s="116" t="n">
+        <v>-0.1040511740228664</v>
+      </c>
+      <c r="S11" s="117" t="n">
+        <v>2450</v>
+      </c>
+      <c r="T11" s="117" t="n">
+        <v>12162.35029527162</v>
+      </c>
+      <c r="U11" s="117" t="n">
+        <v>5554.693036051602</v>
+      </c>
+      <c r="V11" s="118" t="n">
+        <v>9202.478685570106</v>
+      </c>
+      <c r="W11" s="119" t="n">
+        <v>-0.104779320324973</v>
+      </c>
+      <c r="X11" s="120" t="n">
+        <v>2450</v>
+      </c>
+      <c r="Y11" s="120" t="n">
+        <v>11825.82649713973</v>
+      </c>
+      <c r="Z11" s="120" t="n">
+        <v>5417.48560822045</v>
+      </c>
+      <c r="AA11" s="112" t="n">
+        <v>9156.681508513348</v>
+      </c>
+      <c r="AB11" s="113" t="n">
+        <v>-0.1116487109842607</v>
+      </c>
+      <c r="AC11" s="114" t="n">
+        <v>2695</v>
+      </c>
+      <c r="AD11" s="114" t="n">
+        <v>12105.40016048396</v>
+      </c>
+      <c r="AE11" s="114" t="n">
+        <v>5491.444730832595</v>
+      </c>
+      <c r="AF11" s="121" t="n">
+        <v>-0.1205258229527003</v>
+      </c>
+      <c r="AG11" s="122" t="n">
+        <v>1.675414800643921</v>
+      </c>
+      <c r="AH11" s="123" t="n">
+        <v>0.01931905746459961</v>
+      </c>
+      <c r="AI11" s="124" t="n">
+        <v>1.694958209991455</v>
+      </c>
+      <c r="AJ11" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="AK11" s="113" t="n">
-        <v>5.841255187988281e-05</v>
-      </c>
-      <c r="AL11" s="114" t="n">
-        <v>13798.24124513619</v>
-      </c>
-      <c r="AM11" s="113" t="n">
-        <v>5.841255187988281e-05</v>
-      </c>
-      <c r="AN11" s="115" t="n">
-        <v>0.001211881637573242</v>
-      </c>
-      <c r="AO11" s="116" t="n">
-        <v>2.622604370117188e-05</v>
-      </c>
-      <c r="AP11" s="117" t="n">
-        <v>875.7723251150171</v>
-      </c>
-      <c r="AQ11" s="116" t="n">
-        <v>0.00123906135559082</v>
-      </c>
-      <c r="AR11" s="110" t="n">
+      <c r="AK11" s="135" t="n">
+        <v>5.269050598144531e-05</v>
+      </c>
+      <c r="AL11" s="126" t="n">
+        <v>10286.08080808081</v>
+      </c>
+      <c r="AM11" s="135" t="n">
+        <v>5.269050598144531e-05</v>
+      </c>
+      <c r="AN11" s="127" t="n">
+        <v>0.001181125640869141</v>
+      </c>
+      <c r="AO11" s="128" t="n">
+        <v>3.385543823242188e-05</v>
+      </c>
+      <c r="AP11" s="129" t="n">
+        <v>865.6212052042913</v>
+      </c>
+      <c r="AQ11" s="130" t="n">
+        <v>0.001218318939208984</v>
+      </c>
+      <c r="AR11" s="122" t="n">
         <v>0</v>
       </c>
-      <c r="AS11" s="111" t="n">
-        <v>8.821487426757812e-06</v>
-      </c>
-      <c r="AT11" s="118" t="n">
-        <v>95399.37333333334</v>
-      </c>
-      <c r="AU11" s="111" t="n">
-        <v>8.821487426757812e-06</v>
-      </c>
-      <c r="AV11" s="112" t="n">
-        <v>0.001288890838623047</v>
-      </c>
-      <c r="AW11" s="113" t="n">
-        <v>4.076957702636719e-05</v>
-      </c>
-      <c r="AX11" s="114" t="n">
-        <v>753.0650397877984</v>
-      </c>
-      <c r="AY11" s="113" t="n">
-        <v>0.001339197158813477</v>
+      <c r="AS11" s="136" t="n">
+        <v>9.059906005859375e-06</v>
+      </c>
+      <c r="AT11" s="132" t="n">
+        <v>48035.21476510067</v>
+      </c>
+      <c r="AU11" s="136" t="n">
+        <v>9.059906005859375e-06</v>
+      </c>
+      <c r="AV11" s="133" t="n">
+        <v>0.001276254653930664</v>
+      </c>
+      <c r="AW11" s="135" t="n">
+        <v>8.368492126464844e-05</v>
+      </c>
+      <c r="AX11" s="126" t="n">
+        <v>703.0847836655323</v>
+      </c>
+      <c r="AY11" s="134" t="n">
+        <v>0.001360177993774414</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="97" t="inlineStr">
+      <c r="A12" s="109" t="inlineStr">
         <is>
           <t>W-STD</t>
         </is>
       </c>
-      <c r="B12" s="97" t="inlineStr"/>
-      <c r="C12" s="97" t="inlineStr"/>
-      <c r="D12" s="97" t="n">
+      <c r="B12" s="109" t="inlineStr"/>
+      <c r="C12" s="109" t="inlineStr"/>
+      <c r="D12" s="109" t="n">
         <v>25</v>
       </c>
-      <c r="E12" s="97" t="inlineStr"/>
-      <c r="F12" s="97" t="inlineStr">
+      <c r="E12" s="109" t="inlineStr"/>
+      <c r="F12" s="109" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G12" s="97" t="inlineStr"/>
-      <c r="H12" s="98" t="n">
+      <c r="G12" s="109" t="inlineStr"/>
+      <c r="H12" s="110" t="n">
         <v>244.0294412417298</v>
       </c>
-      <c r="I12" s="99" t="n">
+      <c r="I12" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="99" t="n">
+      <c r="J12" s="111" t="n">
         <v>533.5099808504984</v>
       </c>
-      <c r="K12" s="99" t="n">
+      <c r="K12" s="111" t="n">
         <v>300.0716473042948</v>
       </c>
-      <c r="L12" s="100" t="n">
-        <v>1095.453155609056</v>
-      </c>
-      <c r="M12" s="101" t="n">
-        <v>0.0362368945148883</v>
-      </c>
-      <c r="N12" s="102" t="n">
-        <v>1038.224111381808</v>
-      </c>
-      <c r="O12" s="102" t="n">
-        <v>540.8598258861895</v>
-      </c>
-      <c r="P12" s="102" t="n">
-        <v>436.6301297581736</v>
-      </c>
-      <c r="Q12" s="103" t="n">
-        <v>1064.339548908973</v>
-      </c>
-      <c r="R12" s="104" t="n">
-        <v>0.03474735655155106</v>
-      </c>
-      <c r="S12" s="105" t="n">
-        <v>1038.497383022921</v>
-      </c>
-      <c r="T12" s="105" t="n">
-        <v>470.5123097025203</v>
-      </c>
-      <c r="U12" s="105" t="n">
-        <v>247.246856704872</v>
-      </c>
-      <c r="V12" s="106" t="n">
-        <v>1109.658401702729</v>
-      </c>
-      <c r="W12" s="107" t="n">
-        <v>0.03668437504169305</v>
-      </c>
-      <c r="X12" s="108" t="n">
-        <v>1100.249642746425</v>
-      </c>
-      <c r="Y12" s="108" t="n">
-        <v>482.7154666539712</v>
-      </c>
-      <c r="Z12" s="108" t="n">
-        <v>314.2133267946668</v>
-      </c>
-      <c r="AA12" s="100" t="n">
-        <v>1017.42017398081</v>
-      </c>
-      <c r="AB12" s="101" t="n">
-        <v>0.03326901300240752</v>
-      </c>
-      <c r="AC12" s="102" t="n">
-        <v>999.7353740774696</v>
-      </c>
-      <c r="AD12" s="102" t="n">
-        <v>463.6109181130261</v>
-      </c>
-      <c r="AE12" s="102" t="n">
-        <v>240.7173001105463</v>
-      </c>
-      <c r="AF12" s="109" t="n">
-        <v>0.0566995234910893</v>
-      </c>
-      <c r="AG12" s="110" t="n">
-        <v>0.04781753016729332</v>
-      </c>
-      <c r="AH12" s="111" t="n">
-        <v>0.0009420404786033333</v>
-      </c>
-      <c r="AI12" s="112" t="n">
-        <v>0.04807893391065877</v>
-      </c>
-      <c r="AJ12" s="112" t="n">
+      <c r="L12" s="112" t="n">
+        <v>371.2664689872705</v>
+      </c>
+      <c r="M12" s="113" t="n">
+        <v>0.02730923647700098</v>
+      </c>
+      <c r="N12" s="114" t="n">
+        <v>181.7308966243187</v>
+      </c>
+      <c r="O12" s="114" t="n">
+        <v>576.2470718854693</v>
+      </c>
+      <c r="P12" s="114" t="n">
+        <v>438.1747376582275</v>
+      </c>
+      <c r="Q12" s="115" t="n">
+        <v>290.1026336374175</v>
+      </c>
+      <c r="R12" s="116" t="n">
+        <v>0.01783231402388023</v>
+      </c>
+      <c r="S12" s="117" t="n">
+        <v>171.5678653601613</v>
+      </c>
+      <c r="T12" s="117" t="n">
+        <v>442.799285497428</v>
+      </c>
+      <c r="U12" s="117" t="n">
+        <v>223.9737334855415</v>
+      </c>
+      <c r="V12" s="118" t="n">
+        <v>303.0533478372552</v>
+      </c>
+      <c r="W12" s="119" t="n">
+        <v>0.0202240760737603</v>
+      </c>
+      <c r="X12" s="120" t="n">
+        <v>182.3297808639581</v>
+      </c>
+      <c r="Y12" s="120" t="n">
+        <v>578.4834670236361</v>
+      </c>
+      <c r="Z12" s="120" t="n">
+        <v>424.3915597539931</v>
+      </c>
+      <c r="AA12" s="112" t="n">
+        <v>320.3981450184421</v>
+      </c>
+      <c r="AB12" s="113" t="n">
+        <v>0.024191819075779</v>
+      </c>
+      <c r="AC12" s="114" t="n">
+        <v>186.7975393496143</v>
+      </c>
+      <c r="AD12" s="114" t="n">
+        <v>487.5767587534119</v>
+      </c>
+      <c r="AE12" s="114" t="n">
+        <v>364.5026684475372</v>
+      </c>
+      <c r="AF12" s="121" t="n">
+        <v>0.03872914263199632</v>
+      </c>
+      <c r="AG12" s="137" t="n">
+        <v>0.05338668207462895</v>
+      </c>
+      <c r="AH12" s="138" t="n">
+        <v>0.001166328370858961</v>
+      </c>
+      <c r="AI12" s="139" t="n">
+        <v>0.05334736503883746</v>
+      </c>
+      <c r="AJ12" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="AK12" s="113" t="n">
-        <v>1.342553507632223e-05</v>
-      </c>
-      <c r="AL12" s="114" t="n">
-        <v>3611.524183475416</v>
-      </c>
-      <c r="AM12" s="113" t="n">
-        <v>1.342553507632223e-05</v>
-      </c>
-      <c r="AN12" s="115" t="n">
-        <v>0.0001002848329502828</v>
-      </c>
-      <c r="AO12" s="116" t="n">
-        <v>4.460230046531506e-06</v>
-      </c>
-      <c r="AP12" s="117" t="n">
-        <v>84.91330755149755</v>
-      </c>
-      <c r="AQ12" s="116" t="n">
-        <v>0.0001031758327188054</v>
-      </c>
-      <c r="AR12" s="110" t="n">
+      <c r="AK12" s="135" t="n">
+        <v>2.122471541235597e-05</v>
+      </c>
+      <c r="AL12" s="126" t="n">
+        <v>5203.76464121656</v>
+      </c>
+      <c r="AM12" s="135" t="n">
+        <v>2.122471541235597e-05</v>
+      </c>
+      <c r="AN12" s="140" t="n">
+        <v>0.0001315324493956499</v>
+      </c>
+      <c r="AO12" s="141" t="n">
+        <v>8.923253148052223e-06</v>
+      </c>
+      <c r="AP12" s="129" t="n">
+        <v>111.2166393414342</v>
+      </c>
+      <c r="AQ12" s="142" t="n">
+        <v>0.0001365589027191827</v>
+      </c>
+      <c r="AR12" s="122" t="n">
         <v>0</v>
       </c>
-      <c r="AS12" s="111" t="n">
-        <v>1.21599377817349e-06</v>
-      </c>
-      <c r="AT12" s="118" t="n">
-        <v>16817.36816584516</v>
-      </c>
-      <c r="AU12" s="111" t="n">
-        <v>1.21599377817349e-06</v>
-      </c>
-      <c r="AV12" s="112" t="n">
-        <v>0.0001622023890404091</v>
-      </c>
-      <c r="AW12" s="113" t="n">
-        <v>6.466746731021474e-06</v>
-      </c>
-      <c r="AX12" s="114" t="n">
-        <v>105.5929054630807</v>
-      </c>
-      <c r="AY12" s="113" t="n">
-        <v>0.0001661817000973107</v>
+      <c r="AS12" s="136" t="n">
+        <v>4.423202899777572e-06</v>
+      </c>
+      <c r="AT12" s="132" t="n">
+        <v>29329.92011485925</v>
+      </c>
+      <c r="AU12" s="136" t="n">
+        <v>4.423202899777572e-06</v>
+      </c>
+      <c r="AV12" s="143" t="n">
+        <v>0.0001244776654306227</v>
+      </c>
+      <c r="AW12" s="135" t="n">
+        <v>1.782327174431407e-05</v>
+      </c>
+      <c r="AX12" s="126" t="n">
+        <v>95.93144626598331</v>
+      </c>
+      <c r="AY12" s="125" t="n">
+        <v>0.0001386343459606405</v>
       </c>
     </row>
     <row r="13"/>
@@ -2145,7 +2206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -2168,6 +2229,21 @@
     <col width="22" customWidth="1" min="10" max="10"/>
     <col width="32" customWidth="1" min="11" max="11"/>
     <col width="28" customWidth="1" min="12" max="12"/>
+    <col width="21" customWidth="1" min="13" max="13"/>
+    <col width="22" customWidth="1" min="14" max="14"/>
+    <col width="21" customWidth="1" min="15" max="15"/>
+    <col width="27" customWidth="1" min="16" max="16"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="24" customWidth="1" min="18" max="18"/>
+    <col width="35" customWidth="1" min="19" max="19"/>
+    <col width="35" customWidth="1" min="20" max="20"/>
+    <col width="35" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="23" customWidth="1" min="23" max="23"/>
+    <col width="23" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="30" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2231,6 +2307,81 @@
           <t>biased_vs_stratified_diff%</t>
         </is>
       </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>base_iadu_prep_time</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>base_iadu_sel_time</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>base_iadu_x_time</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>biased_sampling_prep_time</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>biased_sampling_sel_time</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>biased_sampling_x_time</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>grid_sampling(cardinality)_prep_time</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>grid_sampling(cardinality)_sel_time</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>grid_sampling(cardinality)_x_time</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>sampling_prep_time</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>sampling_sel_time</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>sampling_x_time</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>stratified_sampling_prep_time</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>stratified_sampling_sel_time</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>stratified_sampling_x_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="3" t="n">
@@ -2243,7 +2394,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
@@ -2254,325 +2405,640 @@
         <v>16</v>
       </c>
       <c r="H2" s="13" t="n">
-        <v>-0.1464548307193463</v>
-      </c>
-      <c r="I2" s="119" t="n">
-        <v>-0.1783219787981602</v>
+        <v>-0.04514598859324246</v>
+      </c>
+      <c r="I2" s="144" t="n">
+        <v>-0.05098924458783127</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.1850201080976768</v>
+        <v>-0.05827603552104323</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.1803988090767377</v>
+        <v>-0.03277225798556176</v>
       </c>
       <c r="L2" s="10" t="n">
-        <v>0.0428420163516928</v>
+        <v>-0.01213640247857317</v>
+      </c>
+      <c r="M2" s="145" t="n">
+        <v>1.74975745677948</v>
+      </c>
+      <c r="N2" s="146" t="n">
+        <v>0.02093086242675781</v>
+      </c>
+      <c r="O2" s="147" t="n">
+        <v>1.770688319206238</v>
+      </c>
+      <c r="P2" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="22" t="n">
+        <v>6.946325302124024e-05</v>
+      </c>
+      <c r="R2" s="149" t="n">
+        <v>6.946325302124024e-05</v>
+      </c>
+      <c r="S2" s="150" t="n">
+        <v>0.001304521560668945</v>
+      </c>
+      <c r="T2" s="151" t="n">
+        <v>4.151821136474609e-05</v>
+      </c>
+      <c r="U2" s="28" t="n">
+        <v>0.001346039772033691</v>
+      </c>
+      <c r="V2" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="22" t="n">
+        <v>1.295566558837891e-05</v>
+      </c>
+      <c r="X2" s="149" t="n">
+        <v>1.295566558837891e-05</v>
+      </c>
+      <c r="Y2" s="150" t="n">
+        <v>0.001388993263244629</v>
+      </c>
+      <c r="Z2" s="151" t="n">
+        <v>9.809732437133789e-05</v>
+      </c>
+      <c r="AA2" s="28" t="n">
+        <v>0.001487090587615967</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="inlineStr">
+      <c r="A3" s="29" t="inlineStr">
         <is>
           <t>MEAN</t>
         </is>
       </c>
-      <c r="B3" s="25" t="n">
+      <c r="B3" s="29" t="n">
         <v>1000</v>
       </c>
-      <c r="C3" s="25" t="n">
+      <c r="C3" s="29" t="n">
         <v>20</v>
       </c>
-      <c r="D3" s="25" t="n">
+      <c r="D3" s="29" t="n">
         <v>25</v>
       </c>
-      <c r="E3" s="25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F3" s="25" t="inlineStr">
+      <c r="E3" s="29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="29" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G3" s="25" t="n">
+      <c r="G3" s="29" t="n">
         <v>16</v>
       </c>
-      <c r="H3" s="35" t="n">
-        <v>-0.1464548307193463</v>
-      </c>
-      <c r="I3" s="120" t="n">
-        <v>-0.1783219787981602</v>
-      </c>
-      <c r="J3" s="29" t="n">
-        <v>-0.1850201080976768</v>
-      </c>
-      <c r="K3" s="37" t="n">
-        <v>-0.1803988090767377</v>
-      </c>
-      <c r="L3" s="32" t="n">
-        <v>0.0428420163516928</v>
+      <c r="H3" s="39" t="n">
+        <v>-0.04514598859324246</v>
+      </c>
+      <c r="I3" s="152" t="n">
+        <v>-0.05098924458783127</v>
+      </c>
+      <c r="J3" s="33" t="n">
+        <v>-0.05827603552104323</v>
+      </c>
+      <c r="K3" s="41" t="n">
+        <v>-0.03277225798556176</v>
+      </c>
+      <c r="L3" s="36" t="n">
+        <v>-0.01213640247857317</v>
+      </c>
+      <c r="M3" s="153" t="n">
+        <v>1.74975745677948</v>
+      </c>
+      <c r="N3" s="154" t="n">
+        <v>0.02093086242675781</v>
+      </c>
+      <c r="O3" s="155" t="n">
+        <v>1.770688319206238</v>
+      </c>
+      <c r="P3" s="156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="48" t="n">
+        <v>6.946325302124024e-05</v>
+      </c>
+      <c r="R3" s="157" t="n">
+        <v>6.946325302124024e-05</v>
+      </c>
+      <c r="S3" s="158" t="n">
+        <v>0.001304521560668945</v>
+      </c>
+      <c r="T3" s="159" t="n">
+        <v>4.151821136474609e-05</v>
+      </c>
+      <c r="U3" s="54" t="n">
+        <v>0.001346039772033691</v>
+      </c>
+      <c r="V3" s="156" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="48" t="n">
+        <v>1.295566558837891e-05</v>
+      </c>
+      <c r="X3" s="157" t="n">
+        <v>1.295566558837891e-05</v>
+      </c>
+      <c r="Y3" s="158" t="n">
+        <v>0.001388993263244629</v>
+      </c>
+      <c r="Z3" s="159" t="n">
+        <v>9.809732437133789e-05</v>
+      </c>
+      <c r="AA3" s="54" t="n">
+        <v>0.001487090587615967</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="47" t="inlineStr">
+      <c r="A4" s="55" t="inlineStr">
         <is>
           <t>MAX</t>
         </is>
       </c>
-      <c r="B4" s="47" t="n">
+      <c r="B4" s="55" t="n">
         <v>1000</v>
       </c>
-      <c r="C4" s="47" t="n">
+      <c r="C4" s="55" t="n">
         <v>20</v>
       </c>
-      <c r="D4" s="47" t="n">
+      <c r="D4" s="55" t="n">
         <v>25</v>
       </c>
-      <c r="E4" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="47" t="inlineStr">
+      <c r="E4" s="55" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="55" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G4" s="47" t="n">
+      <c r="G4" s="55" t="n">
         <v>16</v>
       </c>
-      <c r="H4" s="54" t="n">
-        <v>-0.07577010499334752</v>
-      </c>
-      <c r="I4" s="121" t="n">
-        <v>-0.09375562478794403</v>
-      </c>
-      <c r="J4" s="50" t="n">
-        <v>-0.09603026979970182</v>
-      </c>
-      <c r="K4" s="55" t="n">
-        <v>-0.09442349784884879</v>
-      </c>
-      <c r="L4" s="52" t="n">
-        <v>0.1890676710169173</v>
-      </c>
+      <c r="H4" s="62" t="n">
+        <v>0.006644844423510109</v>
+      </c>
+      <c r="I4" s="160" t="n">
+        <v>-0.009190721555116575</v>
+      </c>
+      <c r="J4" s="58" t="n">
+        <v>-0.01381103801069268</v>
+      </c>
+      <c r="K4" s="63" t="n">
+        <v>0.01108333189045867</v>
+      </c>
+      <c r="L4" s="60" t="n">
+        <v>0.1043224830546609</v>
+      </c>
+      <c r="M4" s="61" t="inlineStr"/>
+      <c r="N4" s="56" t="inlineStr"/>
+      <c r="O4" s="57" t="inlineStr"/>
+      <c r="P4" s="66" t="inlineStr"/>
+      <c r="Q4" s="59" t="inlineStr"/>
+      <c r="R4" s="64" t="inlineStr"/>
+      <c r="S4" s="61" t="inlineStr"/>
+      <c r="T4" s="56" t="inlineStr"/>
+      <c r="U4" s="57" t="inlineStr"/>
+      <c r="V4" s="66" t="inlineStr"/>
+      <c r="W4" s="59" t="inlineStr"/>
+      <c r="X4" s="64" t="inlineStr"/>
+      <c r="Y4" s="61" t="inlineStr"/>
+      <c r="Z4" s="56" t="inlineStr"/>
+      <c r="AA4" s="57" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="47" t="inlineStr">
+      <c r="A5" s="55" t="inlineStr">
         <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="B5" s="47" t="n">
+      <c r="B5" s="55" t="n">
         <v>1000</v>
       </c>
-      <c r="C5" s="47" t="n">
+      <c r="C5" s="55" t="n">
         <v>20</v>
       </c>
-      <c r="D5" s="47" t="n">
+      <c r="D5" s="55" t="n">
         <v>25</v>
       </c>
-      <c r="E5" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F5" s="47" t="inlineStr">
+      <c r="E5" s="55" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="55" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G5" s="47" t="n">
+      <c r="G5" s="55" t="n">
         <v>16</v>
       </c>
-      <c r="H5" s="54" t="n">
-        <v>-0.252233186117246</v>
-      </c>
-      <c r="I5" s="121" t="n">
-        <v>-0.2517269755898159</v>
-      </c>
-      <c r="J5" s="50" t="n">
-        <v>-0.3022805303781045</v>
-      </c>
-      <c r="K5" s="55" t="n">
-        <v>-0.2621285635360688</v>
-      </c>
-      <c r="L5" s="52" t="n">
-        <v>-0.09930216530082399</v>
-      </c>
+      <c r="H5" s="62" t="n">
+        <v>-0.1306698984274523</v>
+      </c>
+      <c r="I5" s="160" t="n">
+        <v>-0.1040511740228664</v>
+      </c>
+      <c r="J5" s="58" t="n">
+        <v>-0.104779320324973</v>
+      </c>
+      <c r="K5" s="63" t="n">
+        <v>-0.1116487109842607</v>
+      </c>
+      <c r="L5" s="60" t="n">
+        <v>-0.1205258229527003</v>
+      </c>
+      <c r="M5" s="61" t="inlineStr"/>
+      <c r="N5" s="56" t="inlineStr"/>
+      <c r="O5" s="57" t="inlineStr"/>
+      <c r="P5" s="66" t="inlineStr"/>
+      <c r="Q5" s="59" t="inlineStr"/>
+      <c r="R5" s="64" t="inlineStr"/>
+      <c r="S5" s="61" t="inlineStr"/>
+      <c r="T5" s="56" t="inlineStr"/>
+      <c r="U5" s="57" t="inlineStr"/>
+      <c r="V5" s="66" t="inlineStr"/>
+      <c r="W5" s="59" t="inlineStr"/>
+      <c r="X5" s="64" t="inlineStr"/>
+      <c r="Y5" s="61" t="inlineStr"/>
+      <c r="Z5" s="56" t="inlineStr"/>
+      <c r="AA5" s="57" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="61" t="inlineStr">
+      <c r="A6" s="69" t="inlineStr">
         <is>
           <t>STD</t>
         </is>
       </c>
-      <c r="B6" s="61" t="n">
+      <c r="B6" s="69" t="n">
         <v>1000</v>
       </c>
-      <c r="C6" s="61" t="n">
+      <c r="C6" s="69" t="n">
         <v>20</v>
       </c>
-      <c r="D6" s="61" t="n">
+      <c r="D6" s="69" t="n">
         <v>25</v>
       </c>
-      <c r="E6" s="61" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="61" t="inlineStr">
+      <c r="E6" s="69" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="69" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G6" s="61" t="n">
+      <c r="G6" s="69" t="n">
         <v>16</v>
       </c>
-      <c r="H6" s="68" t="n">
-        <v>0.0362368945148883</v>
-      </c>
-      <c r="I6" s="122" t="n">
-        <v>0.03474735655155106</v>
-      </c>
-      <c r="J6" s="64" t="n">
-        <v>0.03668437504169305</v>
-      </c>
-      <c r="K6" s="69" t="n">
-        <v>0.03326901300240752</v>
-      </c>
-      <c r="L6" s="66" t="n">
-        <v>0.0566995234910893</v>
-      </c>
+      <c r="H6" s="76" t="n">
+        <v>0.02730923647700098</v>
+      </c>
+      <c r="I6" s="161" t="n">
+        <v>0.01783231402388023</v>
+      </c>
+      <c r="J6" s="72" t="n">
+        <v>0.0202240760737603</v>
+      </c>
+      <c r="K6" s="77" t="n">
+        <v>0.024191819075779</v>
+      </c>
+      <c r="L6" s="74" t="n">
+        <v>0.03872914263199632</v>
+      </c>
+      <c r="M6" s="75" t="inlineStr"/>
+      <c r="N6" s="70" t="inlineStr"/>
+      <c r="O6" s="71" t="inlineStr"/>
+      <c r="P6" s="80" t="inlineStr"/>
+      <c r="Q6" s="73" t="inlineStr"/>
+      <c r="R6" s="78" t="inlineStr"/>
+      <c r="S6" s="75" t="inlineStr"/>
+      <c r="T6" s="70" t="inlineStr"/>
+      <c r="U6" s="71" t="inlineStr"/>
+      <c r="V6" s="80" t="inlineStr"/>
+      <c r="W6" s="73" t="inlineStr"/>
+      <c r="X6" s="78" t="inlineStr"/>
+      <c r="Y6" s="75" t="inlineStr"/>
+      <c r="Z6" s="70" t="inlineStr"/>
+      <c r="AA6" s="71" t="inlineStr"/>
     </row>
     <row r="7"/>
     <row r="8"/>
     <row r="9">
-      <c r="A9" s="75" t="inlineStr">
+      <c r="A9" s="83" t="inlineStr">
         <is>
           <t>W-AVG</t>
         </is>
       </c>
-      <c r="B9" s="75" t="inlineStr"/>
-      <c r="C9" s="75" t="inlineStr"/>
-      <c r="D9" s="75" t="n">
+      <c r="B9" s="83" t="inlineStr"/>
+      <c r="C9" s="83" t="inlineStr"/>
+      <c r="D9" s="83" t="n">
         <v>25</v>
       </c>
-      <c r="E9" s="75" t="inlineStr"/>
-      <c r="F9" s="75" t="inlineStr">
+      <c r="E9" s="83" t="inlineStr"/>
+      <c r="F9" s="83" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G9" s="75" t="inlineStr"/>
-      <c r="H9" s="85" t="n">
-        <v>-0.1464548307193463</v>
-      </c>
-      <c r="I9" s="123" t="n">
-        <v>-0.1783219787981602</v>
-      </c>
-      <c r="J9" s="79" t="n">
-        <v>-0.1850201080976768</v>
-      </c>
-      <c r="K9" s="87" t="n">
-        <v>-0.1803988090767377</v>
-      </c>
-      <c r="L9" s="82" t="n">
-        <v>0.0428420163516928</v>
+      <c r="G9" s="83" t="inlineStr"/>
+      <c r="H9" s="93" t="n">
+        <v>-0.04514598859324246</v>
+      </c>
+      <c r="I9" s="162" t="n">
+        <v>-0.05098924458783127</v>
+      </c>
+      <c r="J9" s="87" t="n">
+        <v>-0.05827603552104323</v>
+      </c>
+      <c r="K9" s="95" t="n">
+        <v>-0.03277225798556176</v>
+      </c>
+      <c r="L9" s="90" t="n">
+        <v>-0.01213640247857317</v>
+      </c>
+      <c r="M9" s="163" t="n">
+        <v>1.74975745677948</v>
+      </c>
+      <c r="N9" s="164" t="n">
+        <v>0.02093086242675781</v>
+      </c>
+      <c r="O9" s="165" t="n">
+        <v>1.770688319206238</v>
+      </c>
+      <c r="P9" s="166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="102" t="n">
+        <v>6.946325302124024e-05</v>
+      </c>
+      <c r="R9" s="167" t="n">
+        <v>6.946325302124024e-05</v>
+      </c>
+      <c r="S9" s="168" t="n">
+        <v>0.001304521560668945</v>
+      </c>
+      <c r="T9" s="169" t="n">
+        <v>4.151821136474609e-05</v>
+      </c>
+      <c r="U9" s="108" t="n">
+        <v>0.001346039772033691</v>
+      </c>
+      <c r="V9" s="166" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="102" t="n">
+        <v>1.295566558837891e-05</v>
+      </c>
+      <c r="X9" s="167" t="n">
+        <v>1.295566558837891e-05</v>
+      </c>
+      <c r="Y9" s="168" t="n">
+        <v>0.001388993263244629</v>
+      </c>
+      <c r="Z9" s="169" t="n">
+        <v>9.809732437133789e-05</v>
+      </c>
+      <c r="AA9" s="108" t="n">
+        <v>0.001487090587615967</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="97" t="inlineStr">
+      <c r="A10" s="109" t="inlineStr">
         <is>
           <t>W-MAX</t>
         </is>
       </c>
-      <c r="B10" s="97" t="inlineStr"/>
-      <c r="C10" s="97" t="inlineStr"/>
-      <c r="D10" s="97" t="n">
+      <c r="B10" s="109" t="inlineStr"/>
+      <c r="C10" s="109" t="inlineStr"/>
+      <c r="D10" s="109" t="n">
         <v>25</v>
       </c>
-      <c r="E10" s="97" t="inlineStr"/>
-      <c r="F10" s="97" t="inlineStr">
+      <c r="E10" s="109" t="inlineStr"/>
+      <c r="F10" s="109" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G10" s="97" t="inlineStr"/>
-      <c r="H10" s="107" t="n">
-        <v>-0.07577010499334752</v>
-      </c>
-      <c r="I10" s="124" t="n">
-        <v>-0.09375562478794403</v>
-      </c>
-      <c r="J10" s="101" t="n">
-        <v>-0.09603026979970182</v>
-      </c>
-      <c r="K10" s="109" t="n">
-        <v>-0.09442349784884879</v>
-      </c>
-      <c r="L10" s="104" t="n">
-        <v>0.1890676710169173</v>
+      <c r="G10" s="109" t="inlineStr"/>
+      <c r="H10" s="119" t="n">
+        <v>0.006644844423510109</v>
+      </c>
+      <c r="I10" s="170" t="n">
+        <v>-0.009190721555116575</v>
+      </c>
+      <c r="J10" s="113" t="n">
+        <v>-0.01381103801069268</v>
+      </c>
+      <c r="K10" s="121" t="n">
+        <v>0.01108333189045867</v>
+      </c>
+      <c r="L10" s="116" t="n">
+        <v>0.1043224830546609</v>
+      </c>
+      <c r="M10" s="171" t="n">
+        <v>1.823045492172241</v>
+      </c>
+      <c r="N10" s="139" t="n">
+        <v>0.02604365348815918</v>
+      </c>
+      <c r="O10" s="172" t="n">
+        <v>1.847184658050537</v>
+      </c>
+      <c r="P10" s="173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="142" t="n">
+        <v>0.0001652240753173828</v>
+      </c>
+      <c r="R10" s="174" t="n">
+        <v>0.0001652240753173828</v>
+      </c>
+      <c r="S10" s="138" t="n">
+        <v>0.002034664154052734</v>
+      </c>
+      <c r="T10" s="175" t="n">
+        <v>9.655952453613281e-05</v>
+      </c>
+      <c r="U10" s="134" t="n">
+        <v>0.002089023590087891</v>
+      </c>
+      <c r="V10" s="173" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="128" t="n">
+        <v>3.552436828613281e-05</v>
+      </c>
+      <c r="X10" s="176" t="n">
+        <v>3.552436828613281e-05</v>
+      </c>
+      <c r="Y10" s="138" t="n">
+        <v>0.002272605895996094</v>
+      </c>
+      <c r="Z10" s="143" t="n">
+        <v>0.000186920166015625</v>
+      </c>
+      <c r="AA10" s="134" t="n">
+        <v>0.00245213508605957</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="97" t="inlineStr">
+      <c r="A11" s="109" t="inlineStr">
         <is>
           <t>W-MIN</t>
         </is>
       </c>
-      <c r="B11" s="97" t="inlineStr"/>
-      <c r="C11" s="97" t="inlineStr"/>
-      <c r="D11" s="97" t="n">
+      <c r="B11" s="109" t="inlineStr"/>
+      <c r="C11" s="109" t="inlineStr"/>
+      <c r="D11" s="109" t="n">
         <v>25</v>
       </c>
-      <c r="E11" s="97" t="inlineStr"/>
-      <c r="F11" s="97" t="inlineStr">
+      <c r="E11" s="109" t="inlineStr"/>
+      <c r="F11" s="109" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G11" s="97" t="inlineStr"/>
-      <c r="H11" s="107" t="n">
-        <v>-0.252233186117246</v>
-      </c>
-      <c r="I11" s="124" t="n">
-        <v>-0.2517269755898159</v>
-      </c>
-      <c r="J11" s="101" t="n">
-        <v>-0.3022805303781045</v>
-      </c>
-      <c r="K11" s="109" t="n">
-        <v>-0.2621285635360688</v>
-      </c>
-      <c r="L11" s="104" t="n">
-        <v>-0.09930216530082399</v>
+      <c r="G11" s="109" t="inlineStr"/>
+      <c r="H11" s="119" t="n">
+        <v>-0.1306698984274523</v>
+      </c>
+      <c r="I11" s="170" t="n">
+        <v>-0.1040511740228664</v>
+      </c>
+      <c r="J11" s="113" t="n">
+        <v>-0.104779320324973</v>
+      </c>
+      <c r="K11" s="121" t="n">
+        <v>-0.1116487109842607</v>
+      </c>
+      <c r="L11" s="116" t="n">
+        <v>-0.1205258229527003</v>
+      </c>
+      <c r="M11" s="171" t="n">
+        <v>1.675414800643921</v>
+      </c>
+      <c r="N11" s="139" t="n">
+        <v>0.01931905746459961</v>
+      </c>
+      <c r="O11" s="172" t="n">
+        <v>1.694958209991455</v>
+      </c>
+      <c r="P11" s="173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="128" t="n">
+        <v>5.269050598144531e-05</v>
+      </c>
+      <c r="R11" s="176" t="n">
+        <v>5.269050598144531e-05</v>
+      </c>
+      <c r="S11" s="138" t="n">
+        <v>0.001181125640869141</v>
+      </c>
+      <c r="T11" s="175" t="n">
+        <v>3.385543823242188e-05</v>
+      </c>
+      <c r="U11" s="134" t="n">
+        <v>0.001218318939208984</v>
+      </c>
+      <c r="V11" s="173" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="141" t="n">
+        <v>9.059906005859375e-06</v>
+      </c>
+      <c r="X11" s="177" t="n">
+        <v>9.059906005859375e-06</v>
+      </c>
+      <c r="Y11" s="138" t="n">
+        <v>0.001276254653930664</v>
+      </c>
+      <c r="Z11" s="175" t="n">
+        <v>8.368492126464844e-05</v>
+      </c>
+      <c r="AA11" s="134" t="n">
+        <v>0.001360177993774414</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="97" t="inlineStr">
+      <c r="A12" s="109" t="inlineStr">
         <is>
           <t>W-STD</t>
         </is>
       </c>
-      <c r="B12" s="97" t="inlineStr"/>
-      <c r="C12" s="97" t="inlineStr"/>
-      <c r="D12" s="97" t="n">
+      <c r="B12" s="109" t="inlineStr"/>
+      <c r="C12" s="109" t="inlineStr"/>
+      <c r="D12" s="109" t="n">
         <v>25</v>
       </c>
-      <c r="E12" s="97" t="inlineStr"/>
-      <c r="F12" s="97" t="inlineStr">
+      <c r="E12" s="109" t="inlineStr"/>
+      <c r="F12" s="109" t="inlineStr">
         <is>
           <t>0.5*K/k</t>
         </is>
       </c>
-      <c r="G12" s="97" t="inlineStr"/>
-      <c r="H12" s="107" t="n">
-        <v>0.0362368945148883</v>
-      </c>
-      <c r="I12" s="124" t="n">
-        <v>0.03474735655155106</v>
-      </c>
-      <c r="J12" s="101" t="n">
-        <v>0.03668437504169305</v>
-      </c>
-      <c r="K12" s="109" t="n">
-        <v>0.03326901300240752</v>
-      </c>
-      <c r="L12" s="104" t="n">
-        <v>0.0566995234910893</v>
+      <c r="G12" s="109" t="inlineStr"/>
+      <c r="H12" s="119" t="n">
+        <v>0.02730923647700098</v>
+      </c>
+      <c r="I12" s="170" t="n">
+        <v>0.01783231402388023</v>
+      </c>
+      <c r="J12" s="113" t="n">
+        <v>0.0202240760737603</v>
+      </c>
+      <c r="K12" s="121" t="n">
+        <v>0.024191819075779</v>
+      </c>
+      <c r="L12" s="116" t="n">
+        <v>0.03872914263199632</v>
+      </c>
+      <c r="M12" s="123" t="n">
+        <v>0.05338668207462895</v>
+      </c>
+      <c r="N12" s="133" t="n">
+        <v>0.001166328370858961</v>
+      </c>
+      <c r="O12" s="178" t="n">
+        <v>0.05334736503883746</v>
+      </c>
+      <c r="P12" s="173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="128" t="n">
+        <v>2.122471541235597e-05</v>
+      </c>
+      <c r="R12" s="176" t="n">
+        <v>2.122471541235597e-05</v>
+      </c>
+      <c r="S12" s="179" t="n">
+        <v>0.0001315324493956499</v>
+      </c>
+      <c r="T12" s="180" t="n">
+        <v>8.923253148052223e-06</v>
+      </c>
+      <c r="U12" s="125" t="n">
+        <v>0.0001365589027191827</v>
+      </c>
+      <c r="V12" s="173" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="141" t="n">
+        <v>4.423202899777572e-06</v>
+      </c>
+      <c r="X12" s="177" t="n">
+        <v>4.423202899777572e-06</v>
+      </c>
+      <c r="Y12" s="179" t="n">
+        <v>0.0001244776654306227</v>
+      </c>
+      <c r="Z12" s="175" t="n">
+        <v>1.782327174431407e-05</v>
+      </c>
+      <c r="AA12" s="125" t="n">
+        <v>0.0001386343459606405</v>
       </c>
     </row>
     <row r="13"/>
